--- a/src/main/doc/考研MBA/考研所需资料.xlsx
+++ b/src/main/doc/考研MBA/考研所需资料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\考研MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70242F0-20A5-4BA9-A3E5-8261667E4698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4A4A8A-C5AE-4C2A-8C98-5DA5B65A70B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -438,7 +438,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -452,7 +452,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -463,10 +463,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
